--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7562" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7564" uniqueCount="355">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.ProvideBundle</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.ProvideBundle</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:10:05-06:00</t>
+    <t>2022-02-27T12:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>A profile on the Bundle transaction for ITI-65 Provide Document resources with UnContained allowed but requiring Comprehensive Metadata for MHD.
-- [UnContained Comprehensive Metadata](StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.html): `http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.ProvideBundle` 
+- [UnContained Comprehensive Metadata](StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.html): `https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.ProvideBundle` 
   - note that Minimal Metadata does not require containment, so UnContained Minimal is the same as Minimal Metadata
   - note that UnContained only applies to DocumentReference and SubmissionSet type Lists; so the following apply
   - shall be a Transaction Bundle
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.ProvideBundle</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -1007,7 +1007,7 @@
 WorkingListOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.SubmissionSet}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.SubmissionSet}
 </t>
   </si>
   <si>
@@ -1036,7 +1036,7 @@
     <t>any and all DocumentReference that are part of the SubmissionSet. These might be new, replacements, or other associations</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.DocumentReference}
+    <t xml:space="preserve">DocumentReference {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.UnContained.Comprehensive.DocumentReference}
 </t>
   </si>
   <si>
@@ -1093,11 +1093,11 @@
     <t>any Folders being created or updated</t>
   </si>
   <si>
-    <t xml:space="preserve">List {http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
+    <t xml:space="preserve">List {https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.Minimal.Folder}
 </t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovideFolderActions</t>
+    <t>https://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovideFolderActions</t>
   </si>
   <si>
     <t>Patient</t>
@@ -1126,7 +1126,7 @@
     <t>ClinicalDocument.recordTarget.patientRole</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovidePatientActions</t>
+    <t>https://profiles.ihe.net/ITI/MHD/ValueSet/MHDprovidePatientActions</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -1294,7 +1294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1392,79 +1392,87 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>
@@ -1508,7 +1516,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.24609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.10546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="48.55078125" customWidth="true" bestFit="true"/>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:38:24-06:00</t>
+    <t>2022-02-28T20:12:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$281</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -440,7 +437,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,14 +450,14 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -491,7 +488,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -515,7 +512,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -558,7 +555,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -772,7 +769,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1263,7 +1260,7 @@
     <t>the superseded DocumentReference resources</t>
   </si>
   <si>
-    <t>any updated DocumentReference that are part of the SubmissionSet if a new new DocumentReference replaces this DocumentReference.</t>
+    <t>any updated DocumentReference that are part of the SubmissionSet if a new DocumentReference replaces this DocumentReference.</t>
   </si>
   <si>
     <t>Bundle.entry:UpdateDocumentRefs.id</t>
@@ -1987,21 +1984,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2203,17 +2185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2222,26 +2204,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.10546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.6015625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="48.55078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2366,7 +2348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
@@ -2478,7 +2460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2592,7 +2574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2704,7 +2686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2816,7 +2798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2930,7 +2912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -3044,7 +3026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3158,7 +3140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3272,7 +3254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3386,7 +3368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3500,7 +3482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -3614,7 +3596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3728,7 +3710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3842,7 +3824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>173</v>
       </c>
@@ -3956,7 +3938,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -4070,7 +4052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -4184,7 +4166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4298,7 +4280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -4412,7 +4394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>206</v>
       </c>
@@ -4524,7 +4506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>207</v>
       </c>
@@ -4638,7 +4620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>208</v>
       </c>
@@ -4754,7 +4736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4866,7 +4848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4978,7 +4960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -4997,7 +4979,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -5090,7 +5072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5202,7 +5184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>228</v>
       </c>
@@ -5316,7 +5298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -5432,7 +5414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>230</v>
       </c>
@@ -5544,7 +5526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -5658,7 +5640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>237</v>
       </c>
@@ -5677,7 +5659,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5770,7 +5752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>241</v>
       </c>
@@ -5882,7 +5864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>245</v>
       </c>
@@ -5994,7 +5976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>246</v>
       </c>
@@ -6108,7 +6090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>247</v>
       </c>
@@ -6224,7 +6206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>248</v>
       </c>
@@ -6338,7 +6320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>254</v>
       </c>
@@ -6452,7 +6434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>259</v>
       </c>
@@ -6564,7 +6546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>263</v>
       </c>
@@ -6676,7 +6658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>264</v>
       </c>
@@ -6790,7 +6772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>265</v>
       </c>
@@ -6906,7 +6888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>266</v>
       </c>
@@ -7018,7 +7000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>271</v>
       </c>
@@ -7132,7 +7114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>275</v>
       </c>
@@ -7244,7 +7226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>278</v>
       </c>
@@ -7356,7 +7338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>280</v>
       </c>
@@ -7468,7 +7450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>283</v>
       </c>
@@ -7580,7 +7562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>286</v>
       </c>
@@ -7692,7 +7674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>290</v>
       </c>
@@ -7804,7 +7786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>291</v>
       </c>
@@ -7918,7 +7900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>292</v>
       </c>
@@ -8034,7 +8016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>293</v>
       </c>
@@ -8146,7 +8128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>296</v>
       </c>
@@ -8258,7 +8240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>299</v>
       </c>
@@ -8372,7 +8354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>303</v>
       </c>
@@ -8486,7 +8468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>307</v>
       </c>
@@ -8600,7 +8582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>311</v>
       </c>
@@ -8714,7 +8696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>315</v>
       </c>
@@ -8826,7 +8808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>316</v>
       </c>
@@ -8940,7 +8922,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>317</v>
       </c>
@@ -9056,7 +9038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>318</v>
       </c>
@@ -9168,7 +9150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>319</v>
       </c>
@@ -9282,7 +9264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>320</v>
       </c>
@@ -9394,7 +9376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>326</v>
       </c>
@@ -9506,7 +9488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>327</v>
       </c>
@@ -9618,7 +9600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>328</v>
       </c>
@@ -9732,7 +9714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>329</v>
       </c>
@@ -9848,7 +9830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>330</v>
       </c>
@@ -9962,7 +9944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>331</v>
       </c>
@@ -10076,7 +10058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>332</v>
       </c>
@@ -10188,7 +10170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>333</v>
       </c>
@@ -10300,7 +10282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>334</v>
       </c>
@@ -10414,7 +10396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>335</v>
       </c>
@@ -10530,7 +10512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>336</v>
       </c>
@@ -10642,7 +10624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>338</v>
       </c>
@@ -10756,7 +10738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>339</v>
       </c>
@@ -10868,7 +10850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>340</v>
       </c>
@@ -10980,7 +10962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>341</v>
       </c>
@@ -11092,7 +11074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>342</v>
       </c>
@@ -11204,7 +11186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>343</v>
       </c>
@@ -11316,7 +11298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>344</v>
       </c>
@@ -11428,7 +11410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>345</v>
       </c>
@@ -11542,7 +11524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>346</v>
       </c>
@@ -11658,7 +11640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>347</v>
       </c>
@@ -11770,7 +11752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>348</v>
       </c>
@@ -11882,7 +11864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>349</v>
       </c>
@@ -11996,7 +11978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>350</v>
       </c>
@@ -12110,7 +12092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>351</v>
       </c>
@@ -12224,7 +12206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>352</v>
       </c>
@@ -12338,7 +12320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>356</v>
       </c>
@@ -12450,7 +12432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>357</v>
       </c>
@@ -12564,7 +12546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>358</v>
       </c>
@@ -12680,7 +12662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>359</v>
       </c>
@@ -12792,7 +12774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>360</v>
       </c>
@@ -12906,7 +12888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>361</v>
       </c>
@@ -13020,7 +13002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>368</v>
       </c>
@@ -13132,7 +13114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>369</v>
       </c>
@@ -13244,7 +13226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>370</v>
       </c>
@@ -13358,7 +13340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>371</v>
       </c>
@@ -13474,7 +13456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>372</v>
       </c>
@@ -13588,7 +13570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>373</v>
       </c>
@@ -13702,7 +13684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>374</v>
       </c>
@@ -13814,7 +13796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>375</v>
       </c>
@@ -13926,7 +13908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>376</v>
       </c>
@@ -14040,7 +14022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>377</v>
       </c>
@@ -14156,7 +14138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>378</v>
       </c>
@@ -14268,7 +14250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>379</v>
       </c>
@@ -14382,7 +14364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>380</v>
       </c>
@@ -14494,7 +14476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>381</v>
       </c>
@@ -14606,7 +14588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>382</v>
       </c>
@@ -14718,7 +14700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>383</v>
       </c>
@@ -14830,7 +14812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>384</v>
       </c>
@@ -14942,7 +14924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>385</v>
       </c>
@@ -15054,7 +15036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>386</v>
       </c>
@@ -15168,7 +15150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>387</v>
       </c>
@@ -15284,7 +15266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>388</v>
       </c>
@@ -15396,7 +15378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>389</v>
       </c>
@@ -15508,7 +15490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>390</v>
       </c>
@@ -15622,7 +15604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>391</v>
       </c>
@@ -15736,7 +15718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>392</v>
       </c>
@@ -15850,7 +15832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>393</v>
       </c>
@@ -15964,7 +15946,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>397</v>
       </c>
@@ -16076,7 +16058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>398</v>
       </c>
@@ -16190,7 +16172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>399</v>
       </c>
@@ -16306,7 +16288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>400</v>
       </c>
@@ -16418,7 +16400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>401</v>
       </c>
@@ -16532,7 +16514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>402</v>
       </c>
@@ -16646,7 +16628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>407</v>
       </c>
@@ -16758,7 +16740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>408</v>
       </c>
@@ -16870,7 +16852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>409</v>
       </c>
@@ -16984,7 +16966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>410</v>
       </c>
@@ -17100,7 +17082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>411</v>
       </c>
@@ -17214,7 +17196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>412</v>
       </c>
@@ -17328,7 +17310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>413</v>
       </c>
@@ -17440,7 +17422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>414</v>
       </c>
@@ -17552,7 +17534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>415</v>
       </c>
@@ -17666,7 +17648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>416</v>
       </c>
@@ -17782,7 +17764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>417</v>
       </c>
@@ -17894,7 +17876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>419</v>
       </c>
@@ -18008,7 +17990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>420</v>
       </c>
@@ -18120,7 +18102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>421</v>
       </c>
@@ -18232,7 +18214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>422</v>
       </c>
@@ -18344,7 +18326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>423</v>
       </c>
@@ -18456,7 +18438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>424</v>
       </c>
@@ -18568,7 +18550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>425</v>
       </c>
@@ -18680,7 +18662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>426</v>
       </c>
@@ -18794,7 +18776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>427</v>
       </c>
@@ -18910,7 +18892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>428</v>
       </c>
@@ -19022,7 +19004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>429</v>
       </c>
@@ -19134,7 +19116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>430</v>
       </c>
@@ -19248,7 +19230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>431</v>
       </c>
@@ -19362,7 +19344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>432</v>
       </c>
@@ -19476,7 +19458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>433</v>
       </c>
@@ -19590,7 +19572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>437</v>
       </c>
@@ -19702,7 +19684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>438</v>
       </c>
@@ -19816,7 +19798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>439</v>
       </c>
@@ -19932,7 +19914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>440</v>
       </c>
@@ -20044,7 +20026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>441</v>
       </c>
@@ -20158,7 +20140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>442</v>
       </c>
@@ -20272,7 +20254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>448</v>
       </c>
@@ -20384,7 +20366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>449</v>
       </c>
@@ -20496,7 +20478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>450</v>
       </c>
@@ -20610,7 +20592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>451</v>
       </c>
@@ -20726,7 +20708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>452</v>
       </c>
@@ -20840,7 +20822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>453</v>
       </c>
@@ -20954,7 +20936,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>454</v>
       </c>
@@ -21066,7 +21048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>455</v>
       </c>
@@ -21178,7 +21160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>456</v>
       </c>
@@ -21292,7 +21274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>457</v>
       </c>
@@ -21408,7 +21390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>458</v>
       </c>
@@ -21520,7 +21502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>459</v>
       </c>
@@ -21634,7 +21616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>460</v>
       </c>
@@ -21746,7 +21728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>461</v>
       </c>
@@ -21858,7 +21840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>462</v>
       </c>
@@ -21970,7 +21952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>463</v>
       </c>
@@ -22082,7 +22064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>464</v>
       </c>
@@ -22194,7 +22176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>465</v>
       </c>
@@ -22306,7 +22288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>466</v>
       </c>
@@ -22420,7 +22402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>467</v>
       </c>
@@ -22536,7 +22518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>468</v>
       </c>
@@ -22648,7 +22630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>469</v>
       </c>
@@ -22760,7 +22742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>470</v>
       </c>
@@ -22874,7 +22856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>471</v>
       </c>
@@ -22988,7 +22970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>472</v>
       </c>
@@ -23102,7 +23084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>473</v>
       </c>
@@ -23216,7 +23198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>477</v>
       </c>
@@ -23328,7 +23310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>478</v>
       </c>
@@ -23442,7 +23424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>479</v>
       </c>
@@ -23558,7 +23540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>480</v>
       </c>
@@ -23670,7 +23652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>481</v>
       </c>
@@ -23784,7 +23766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>482</v>
       </c>
@@ -23896,7 +23878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>484</v>
       </c>
@@ -24008,7 +23990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>485</v>
       </c>
@@ -24120,7 +24102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>486</v>
       </c>
@@ -24234,7 +24216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>487</v>
       </c>
@@ -24350,7 +24332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>488</v>
       </c>
@@ -24464,7 +24446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
         <v>489</v>
       </c>
@@ -24578,7 +24560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>490</v>
       </c>
@@ -24690,7 +24672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>491</v>
       </c>
@@ -24802,7 +24784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>492</v>
       </c>
@@ -24916,7 +24898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>493</v>
       </c>
@@ -25032,7 +25014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>494</v>
       </c>
@@ -25144,7 +25126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>495</v>
       </c>
@@ -25258,7 +25240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>496</v>
       </c>
@@ -25370,7 +25352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>497</v>
       </c>
@@ -25482,7 +25464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>498</v>
       </c>
@@ -25594,7 +25576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>499</v>
       </c>
@@ -25706,7 +25688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" hidden="true">
+    <row r="208">
       <c r="A208" t="s" s="2">
         <v>500</v>
       </c>
@@ -25818,7 +25800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>501</v>
       </c>
@@ -25930,7 +25912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>502</v>
       </c>
@@ -26044,7 +26026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
         <v>503</v>
       </c>
@@ -26160,7 +26142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>504</v>
       </c>
@@ -26272,7 +26254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
         <v>505</v>
       </c>
@@ -26384,7 +26366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>506</v>
       </c>
@@ -26498,7 +26480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>507</v>
       </c>
@@ -26612,7 +26594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
         <v>508</v>
       </c>
@@ -26726,7 +26708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>509</v>
       </c>
@@ -26840,7 +26822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>512</v>
       </c>
@@ -26952,7 +26934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>513</v>
       </c>
@@ -27066,7 +27048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>514</v>
       </c>
@@ -27182,7 +27164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
         <v>515</v>
       </c>
@@ -27294,7 +27276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
         <v>516</v>
       </c>
@@ -27408,7 +27390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>517</v>
       </c>
@@ -27520,7 +27502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" hidden="true">
+    <row r="224">
       <c r="A224" t="s" s="2">
         <v>519</v>
       </c>
@@ -27632,7 +27614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" hidden="true">
+    <row r="225">
       <c r="A225" t="s" s="2">
         <v>520</v>
       </c>
@@ -27744,7 +27726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>521</v>
       </c>
@@ -27858,7 +27840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
         <v>522</v>
       </c>
@@ -27974,7 +27956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>523</v>
       </c>
@@ -28088,7 +28070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>524</v>
       </c>
@@ -28202,7 +28184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>525</v>
       </c>
@@ -28314,7 +28296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" hidden="true">
+    <row r="231">
       <c r="A231" t="s" s="2">
         <v>526</v>
       </c>
@@ -28426,7 +28408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" hidden="true">
+    <row r="232">
       <c r="A232" t="s" s="2">
         <v>527</v>
       </c>
@@ -28540,7 +28522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" hidden="true">
+    <row r="233">
       <c r="A233" t="s" s="2">
         <v>528</v>
       </c>
@@ -28656,7 +28638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>529</v>
       </c>
@@ -28766,7 +28748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
         <v>531</v>
       </c>
@@ -28880,7 +28862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" hidden="true">
+    <row r="236">
       <c r="A236" t="s" s="2">
         <v>532</v>
       </c>
@@ -28992,7 +28974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>533</v>
       </c>
@@ -29104,7 +29086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
         <v>534</v>
       </c>
@@ -29216,7 +29198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>535</v>
       </c>
@@ -29328,7 +29310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" hidden="true">
+    <row r="240">
       <c r="A240" t="s" s="2">
         <v>536</v>
       </c>
@@ -29440,7 +29422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>537</v>
       </c>
@@ -29552,7 +29534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" hidden="true">
+    <row r="242">
       <c r="A242" t="s" s="2">
         <v>538</v>
       </c>
@@ -29666,7 +29648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>539</v>
       </c>
@@ -29782,7 +29764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
         <v>540</v>
       </c>
@@ -29894,7 +29876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
         <v>541</v>
       </c>
@@ -30006,7 +29988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" hidden="true">
+    <row r="246">
       <c r="A246" t="s" s="2">
         <v>542</v>
       </c>
@@ -30120,7 +30102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
         <v>543</v>
       </c>
@@ -30234,7 +30216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" hidden="true">
+    <row r="248">
       <c r="A248" t="s" s="2">
         <v>544</v>
       </c>
@@ -30348,7 +30330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
         <v>545</v>
       </c>
@@ -30462,7 +30444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" hidden="true">
+    <row r="250">
       <c r="A250" t="s" s="2">
         <v>548</v>
       </c>
@@ -30574,7 +30556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>549</v>
       </c>
@@ -30688,7 +30670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
         <v>550</v>
       </c>
@@ -30804,7 +30786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
         <v>551</v>
       </c>
@@ -30916,7 +30898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" hidden="true">
+    <row r="254">
       <c r="A254" t="s" s="2">
         <v>552</v>
       </c>
@@ -31030,7 +31012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" hidden="true">
+    <row r="255">
       <c r="A255" t="s" s="2">
         <v>553</v>
       </c>
@@ -31142,7 +31124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>560</v>
       </c>
@@ -31254,7 +31236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>561</v>
       </c>
@@ -31366,7 +31348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" hidden="true">
+    <row r="258">
       <c r="A258" t="s" s="2">
         <v>562</v>
       </c>
@@ -31480,7 +31462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" hidden="true">
+    <row r="259">
       <c r="A259" t="s" s="2">
         <v>563</v>
       </c>
@@ -31596,7 +31578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>564</v>
       </c>
@@ -31710,7 +31692,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>565</v>
       </c>
@@ -31824,7 +31806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>566</v>
       </c>
@@ -31936,7 +31918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" hidden="true">
+    <row r="263">
       <c r="A263" t="s" s="2">
         <v>567</v>
       </c>
@@ -32048,7 +32030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" hidden="true">
+    <row r="264">
       <c r="A264" t="s" s="2">
         <v>568</v>
       </c>
@@ -32162,7 +32144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>569</v>
       </c>
@@ -32278,7 +32260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>570</v>
       </c>
@@ -32388,7 +32370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" hidden="true">
+    <row r="267">
       <c r="A267" t="s" s="2">
         <v>572</v>
       </c>
@@ -32502,7 +32484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" hidden="true">
+    <row r="268">
       <c r="A268" t="s" s="2">
         <v>573</v>
       </c>
@@ -32614,7 +32596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" hidden="true">
+    <row r="269">
       <c r="A269" t="s" s="2">
         <v>574</v>
       </c>
@@ -32726,7 +32708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" hidden="true">
+    <row r="270">
       <c r="A270" t="s" s="2">
         <v>575</v>
       </c>
@@ -32838,7 +32820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>576</v>
       </c>
@@ -32950,7 +32932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" hidden="true">
+    <row r="272">
       <c r="A272" t="s" s="2">
         <v>577</v>
       </c>
@@ -33062,7 +33044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" hidden="true">
+    <row r="273">
       <c r="A273" t="s" s="2">
         <v>578</v>
       </c>
@@ -33174,7 +33156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" hidden="true">
+    <row r="274">
       <c r="A274" t="s" s="2">
         <v>579</v>
       </c>
@@ -33288,7 +33270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>580</v>
       </c>
@@ -33404,7 +33386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>581</v>
       </c>
@@ -33516,7 +33498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" hidden="true">
+    <row r="277">
       <c r="A277" t="s" s="2">
         <v>582</v>
       </c>
@@ -33628,7 +33610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" hidden="true">
+    <row r="278">
       <c r="A278" t="s" s="2">
         <v>583</v>
       </c>
@@ -33742,7 +33724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>584</v>
       </c>
@@ -33856,7 +33838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
         <v>585</v>
       </c>
@@ -33970,7 +33952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>586</v>
       </c>
@@ -34087,24 +34069,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN281">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI280">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.UnContained.Comprehensive.ProvideBundle.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$281</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -33,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -440,7 +437,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,14 +450,14 @@
     <t>Bundle.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -491,7 +488,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -515,7 +512,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -558,7 +555,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -772,7 +769,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>
@@ -1263,7 +1260,7 @@
     <t>the superseded DocumentReference resources</t>
   </si>
   <si>
-    <t>any updated DocumentReference that are part of the SubmissionSet if a new new DocumentReference replaces this DocumentReference.</t>
+    <t>any updated DocumentReference that are part of the SubmissionSet if a new DocumentReference replaces this DocumentReference.</t>
   </si>
   <si>
     <t>Bundle.entry:UpdateDocumentRefs.id</t>
@@ -1987,21 +1984,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2203,17 +2185,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.1796875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="27.828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.6640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="123.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="110.53125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2222,26 +2204,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="163.2734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.10546875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.6015625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="48.55078125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4921875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="43.54296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="48.1484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.43359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.43359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.1796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2366,7 +2348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
@@ -2478,7 +2460,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -2592,7 +2574,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -2704,7 +2686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2816,7 +2798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2930,7 +2912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -3044,7 +3026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -3158,7 +3140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -3272,7 +3254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3386,7 +3368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3500,7 +3482,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>151</v>
       </c>
@@ -3614,7 +3596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
@@ -3728,7 +3710,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>164</v>
       </c>
@@ -3842,7 +3824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>173</v>
       </c>
@@ -3956,7 +3938,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -4070,7 +4052,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>189</v>
       </c>
@@ -4184,7 +4166,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -4298,7 +4280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>201</v>
       </c>
@@ -4412,7 +4394,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>206</v>
       </c>
@@ -4524,7 +4506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>207</v>
       </c>
@@ -4638,7 +4620,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>208</v>
       </c>
@@ -4754,7 +4736,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>214</v>
       </c>
@@ -4866,7 +4848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>217</v>
       </c>
@@ -4978,7 +4960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>220</v>
       </c>
@@ -4997,7 +4979,7 @@
         <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -5090,7 +5072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>227</v>
       </c>
@@ -5202,7 +5184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>228</v>
       </c>
@@ -5316,7 +5298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>229</v>
       </c>
@@ -5432,7 +5414,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>230</v>
       </c>
@@ -5544,7 +5526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>233</v>
       </c>
@@ -5658,7 +5640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>237</v>
       </c>
@@ -5677,7 +5659,7 @@
         <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>79</v>
@@ -5770,7 +5752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>241</v>
       </c>
@@ -5882,7 +5864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>245</v>
       </c>
@@ -5994,7 +5976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>246</v>
       </c>
@@ -6108,7 +6090,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>247</v>
       </c>
@@ -6224,7 +6206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>248</v>
       </c>
@@ -6338,7 +6320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>254</v>
       </c>
@@ -6452,7 +6434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>259</v>
       </c>
@@ -6564,7 +6546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>263</v>
       </c>
@@ -6676,7 +6658,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>264</v>
       </c>
@@ -6790,7 +6772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
         <v>265</v>
       </c>
@@ -6906,7 +6888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>266</v>
       </c>
@@ -7018,7 +7000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>271</v>
       </c>
@@ -7132,7 +7114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>275</v>
       </c>
@@ -7244,7 +7226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>278</v>
       </c>
@@ -7356,7 +7338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>280</v>
       </c>
@@ -7468,7 +7450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>283</v>
       </c>
@@ -7580,7 +7562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>286</v>
       </c>
@@ -7692,7 +7674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>290</v>
       </c>
@@ -7804,7 +7786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>291</v>
       </c>
@@ -7918,7 +7900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
         <v>292</v>
       </c>
@@ -8034,7 +8016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>293</v>
       </c>
@@ -8146,7 +8128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>296</v>
       </c>
@@ -8258,7 +8240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>299</v>
       </c>
@@ -8372,7 +8354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>303</v>
       </c>
@@ -8486,7 +8468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>307</v>
       </c>
@@ -8600,7 +8582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>311</v>
       </c>
@@ -8714,7 +8696,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>315</v>
       </c>
@@ -8826,7 +8808,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>316</v>
       </c>
@@ -8940,7 +8922,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>317</v>
       </c>
@@ -9056,7 +9038,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>318</v>
       </c>
@@ -9168,7 +9150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>319</v>
       </c>
@@ -9282,7 +9264,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>320</v>
       </c>
@@ -9394,7 +9376,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>326</v>
       </c>
@@ -9506,7 +9488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>327</v>
       </c>
@@ -9618,7 +9600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>328</v>
       </c>
@@ -9732,7 +9714,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>329</v>
       </c>
@@ -9848,7 +9830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>330</v>
       </c>
@@ -9962,7 +9944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>331</v>
       </c>
@@ -10076,7 +10058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>332</v>
       </c>
@@ -10188,7 +10170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>333</v>
       </c>
@@ -10300,7 +10282,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>334</v>
       </c>
@@ -10414,7 +10396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>335</v>
       </c>
@@ -10530,7 +10512,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>336</v>
       </c>
@@ -10642,7 +10624,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>338</v>
       </c>
@@ -10756,7 +10738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>339</v>
       </c>
@@ -10868,7 +10850,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>340</v>
       </c>
@@ -10980,7 +10962,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>341</v>
       </c>
@@ -11092,7 +11074,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>342</v>
       </c>
@@ -11204,7 +11186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>343</v>
       </c>
@@ -11316,7 +11298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>344</v>
       </c>
@@ -11428,7 +11410,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>345</v>
       </c>
@@ -11542,7 +11524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>346</v>
       </c>
@@ -11658,7 +11640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>347</v>
       </c>
@@ -11770,7 +11752,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>348</v>
       </c>
@@ -11882,7 +11864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>349</v>
       </c>
@@ -11996,7 +11978,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>350</v>
       </c>
@@ -12110,7 +12092,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>351</v>
       </c>
@@ -12224,7 +12206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>352</v>
       </c>
@@ -12338,7 +12320,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>356</v>
       </c>
@@ -12450,7 +12432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>357</v>
       </c>
@@ -12564,7 +12546,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>358</v>
       </c>
@@ -12680,7 +12662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
         <v>359</v>
       </c>
@@ -12792,7 +12774,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>360</v>
       </c>
@@ -12906,7 +12888,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>361</v>
       </c>
@@ -13020,7 +13002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>368</v>
       </c>
@@ -13132,7 +13114,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>369</v>
       </c>
@@ -13244,7 +13226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>370</v>
       </c>
@@ -13358,7 +13340,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>371</v>
       </c>
@@ -13474,7 +13456,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>372</v>
       </c>
@@ -13588,7 +13570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>373</v>
       </c>
@@ -13702,7 +13684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>374</v>
       </c>
@@ -13814,7 +13796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>375</v>
       </c>
@@ -13926,7 +13908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>376</v>
       </c>
@@ -14040,7 +14022,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>377</v>
       </c>
@@ -14156,7 +14138,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>378</v>
       </c>
@@ -14268,7 +14250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>379</v>
       </c>
@@ -14382,7 +14364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>380</v>
       </c>
@@ -14494,7 +14476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>381</v>
       </c>
@@ -14606,7 +14588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
         <v>382</v>
       </c>
@@ -14718,7 +14700,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="111" hidden="true">
+    <row r="111">
       <c r="A111" t="s" s="2">
         <v>383</v>
       </c>
@@ -14830,7 +14812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>384</v>
       </c>
@@ -14942,7 +14924,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
         <v>385</v>
       </c>
@@ -15054,7 +15036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
         <v>386</v>
       </c>
@@ -15168,7 +15150,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>387</v>
       </c>
@@ -15284,7 +15266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
         <v>388</v>
       </c>
@@ -15396,7 +15378,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>389</v>
       </c>
@@ -15508,7 +15490,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>390</v>
       </c>
@@ -15622,7 +15604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>391</v>
       </c>
@@ -15736,7 +15718,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="120" hidden="true">
+    <row r="120">
       <c r="A120" t="s" s="2">
         <v>392</v>
       </c>
@@ -15850,7 +15832,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>393</v>
       </c>
@@ -15964,7 +15946,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>397</v>
       </c>
@@ -16076,7 +16058,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>398</v>
       </c>
@@ -16190,7 +16172,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" hidden="true">
+    <row r="124">
       <c r="A124" t="s" s="2">
         <v>399</v>
       </c>
@@ -16306,7 +16288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" hidden="true">
+    <row r="125">
       <c r="A125" t="s" s="2">
         <v>400</v>
       </c>
@@ -16418,7 +16400,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" hidden="true">
+    <row r="126">
       <c r="A126" t="s" s="2">
         <v>401</v>
       </c>
@@ -16532,7 +16514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="127" hidden="true">
+    <row r="127">
       <c r="A127" t="s" s="2">
         <v>402</v>
       </c>
@@ -16646,7 +16628,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="128" hidden="true">
+    <row r="128">
       <c r="A128" t="s" s="2">
         <v>407</v>
       </c>
@@ -16758,7 +16740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>408</v>
       </c>
@@ -16870,7 +16852,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" hidden="true">
+    <row r="130">
       <c r="A130" t="s" s="2">
         <v>409</v>
       </c>
@@ -16984,7 +16966,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="131" hidden="true">
+    <row r="131">
       <c r="A131" t="s" s="2">
         <v>410</v>
       </c>
@@ -17100,7 +17082,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>411</v>
       </c>
@@ -17214,7 +17196,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="133" hidden="true">
+    <row r="133">
       <c r="A133" t="s" s="2">
         <v>412</v>
       </c>
@@ -17328,7 +17310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>413</v>
       </c>
@@ -17440,7 +17422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="135" hidden="true">
+    <row r="135">
       <c r="A135" t="s" s="2">
         <v>414</v>
       </c>
@@ -17552,7 +17534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="136" hidden="true">
+    <row r="136">
       <c r="A136" t="s" s="2">
         <v>415</v>
       </c>
@@ -17666,7 +17648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="137" hidden="true">
+    <row r="137">
       <c r="A137" t="s" s="2">
         <v>416</v>
       </c>
@@ -17782,7 +17764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
         <v>417</v>
       </c>
@@ -17894,7 +17876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>419</v>
       </c>
@@ -18008,7 +17990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>420</v>
       </c>
@@ -18120,7 +18102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>421</v>
       </c>
@@ -18232,7 +18214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>422</v>
       </c>
@@ -18344,7 +18326,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>423</v>
       </c>
@@ -18456,7 +18438,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="144" hidden="true">
+    <row r="144">
       <c r="A144" t="s" s="2">
         <v>424</v>
       </c>
@@ -18568,7 +18550,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>425</v>
       </c>
@@ -18680,7 +18662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" hidden="true">
+    <row r="146">
       <c r="A146" t="s" s="2">
         <v>426</v>
       </c>
@@ -18794,7 +18776,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" hidden="true">
+    <row r="147">
       <c r="A147" t="s" s="2">
         <v>427</v>
       </c>
@@ -18910,7 +18892,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>428</v>
       </c>
@@ -19022,7 +19004,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>429</v>
       </c>
@@ -19134,7 +19116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>430</v>
       </c>
@@ -19248,7 +19230,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>431</v>
       </c>
@@ -19362,7 +19344,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>432</v>
       </c>
@@ -19476,7 +19458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="153" hidden="true">
+    <row r="153">
       <c r="A153" t="s" s="2">
         <v>433</v>
       </c>
@@ -19590,7 +19572,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" hidden="true">
+    <row r="154">
       <c r="A154" t="s" s="2">
         <v>437</v>
       </c>
@@ -19702,7 +19684,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>438</v>
       </c>
@@ -19816,7 +19798,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="156" hidden="true">
+    <row r="156">
       <c r="A156" t="s" s="2">
         <v>439</v>
       </c>
@@ -19932,7 +19914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>440</v>
       </c>
@@ -20044,7 +20026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>441</v>
       </c>
@@ -20158,7 +20140,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>442</v>
       </c>
@@ -20272,7 +20254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="160" hidden="true">
+    <row r="160">
       <c r="A160" t="s" s="2">
         <v>448</v>
       </c>
@@ -20384,7 +20366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>449</v>
       </c>
@@ -20496,7 +20478,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>450</v>
       </c>
@@ -20610,7 +20592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>451</v>
       </c>
@@ -20726,7 +20708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>452</v>
       </c>
@@ -20840,7 +20822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="165" hidden="true">
+    <row r="165">
       <c r="A165" t="s" s="2">
         <v>453</v>
       </c>
@@ -20954,7 +20936,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>454</v>
       </c>
@@ -21066,7 +21048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>455</v>
       </c>
@@ -21178,7 +21160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>456</v>
       </c>
@@ -21292,7 +21274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="169" hidden="true">
+    <row r="169">
       <c r="A169" t="s" s="2">
         <v>457</v>
       </c>
@@ -21408,7 +21390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="170" hidden="true">
+    <row r="170">
       <c r="A170" t="s" s="2">
         <v>458</v>
       </c>
@@ -21520,7 +21502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>459</v>
       </c>
@@ -21634,7 +21616,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" hidden="true">
+    <row r="172">
       <c r="A172" t="s" s="2">
         <v>460</v>
       </c>
@@ -21746,7 +21728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>461</v>
       </c>
@@ -21858,7 +21840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>462</v>
       </c>
@@ -21970,7 +21952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>463</v>
       </c>
@@ -22082,7 +22064,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" hidden="true">
+    <row r="176">
       <c r="A176" t="s" s="2">
         <v>464</v>
       </c>
@@ -22194,7 +22176,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>465</v>
       </c>
@@ -22306,7 +22288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="178" hidden="true">
+    <row r="178">
       <c r="A178" t="s" s="2">
         <v>466</v>
       </c>
@@ -22420,7 +22402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="179" hidden="true">
+    <row r="179">
       <c r="A179" t="s" s="2">
         <v>467</v>
       </c>
@@ -22536,7 +22518,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="180" hidden="true">
+    <row r="180">
       <c r="A180" t="s" s="2">
         <v>468</v>
       </c>
@@ -22648,7 +22630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="181" hidden="true">
+    <row r="181">
       <c r="A181" t="s" s="2">
         <v>469</v>
       </c>
@@ -22760,7 +22742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>470</v>
       </c>
@@ -22874,7 +22856,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="183" hidden="true">
+    <row r="183">
       <c r="A183" t="s" s="2">
         <v>471</v>
       </c>
@@ -22988,7 +22970,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="184" hidden="true">
+    <row r="184">
       <c r="A184" t="s" s="2">
         <v>472</v>
       </c>
@@ -23102,7 +23084,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="185" hidden="true">
+    <row r="185">
       <c r="A185" t="s" s="2">
         <v>473</v>
       </c>
@@ -23216,7 +23198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="186" hidden="true">
+    <row r="186">
       <c r="A186" t="s" s="2">
         <v>477</v>
       </c>
@@ -23328,7 +23310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>478</v>
       </c>
@@ -23442,7 +23424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="188" hidden="true">
+    <row r="188">
       <c r="A188" t="s" s="2">
         <v>479</v>
       </c>
@@ -23558,7 +23540,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" hidden="true">
+    <row r="189">
       <c r="A189" t="s" s="2">
         <v>480</v>
       </c>
@@ -23670,7 +23652,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" hidden="true">
+    <row r="190">
       <c r="A190" t="s" s="2">
         <v>481</v>
       </c>
@@ -23784,7 +23766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="191" hidden="true">
+    <row r="191">
       <c r="A191" t="s" s="2">
         <v>482</v>
       </c>
@@ -23896,7 +23878,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="192" hidden="true">
+    <row r="192">
       <c r="A192" t="s" s="2">
         <v>484</v>
       </c>
@@ -24008,7 +23990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" hidden="true">
+    <row r="193">
       <c r="A193" t="s" s="2">
         <v>485</v>
       </c>
@@ -24120,7 +24102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" hidden="true">
+    <row r="194">
       <c r="A194" t="s" s="2">
         <v>486</v>
       </c>
@@ -24234,7 +24216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" hidden="true">
+    <row r="195">
       <c r="A195" t="s" s="2">
         <v>487</v>
       </c>
@@ -24350,7 +24332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>488</v>
       </c>
@@ -24464,7 +24446,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="197" hidden="true">
+    <row r="197">
       <c r="A197" t="s" s="2">
         <v>489</v>
       </c>
@@ -24578,7 +24560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>490</v>
       </c>
@@ -24690,7 +24672,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="199" hidden="true">
+    <row r="199">
       <c r="A199" t="s" s="2">
         <v>491</v>
       </c>
@@ -24802,7 +24784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="200" hidden="true">
+    <row r="200">
       <c r="A200" t="s" s="2">
         <v>492</v>
       </c>
@@ -24916,7 +24898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="201" hidden="true">
+    <row r="201">
       <c r="A201" t="s" s="2">
         <v>493</v>
       </c>
@@ -25032,7 +25014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="202" hidden="true">
+    <row r="202">
       <c r="A202" t="s" s="2">
         <v>494</v>
       </c>
@@ -25144,7 +25126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>495</v>
       </c>
@@ -25258,7 +25240,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="204" hidden="true">
+    <row r="204">
       <c r="A204" t="s" s="2">
         <v>496</v>
       </c>
@@ -25370,7 +25352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>497</v>
       </c>
@@ -25482,7 +25464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>498</v>
       </c>
@@ -25594,7 +25576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>499</v>
       </c>
@@ -25706,7 +25688,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="208" hidden="true">
+    <row r="208">
       <c r="A208" t="s" s="2">
         <v>500</v>
       </c>
@@ -25818,7 +25800,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="209" hidden="true">
+    <row r="209">
       <c r="A209" t="s" s="2">
         <v>501</v>
       </c>
@@ -25930,7 +25912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="210" hidden="true">
+    <row r="210">
       <c r="A210" t="s" s="2">
         <v>502</v>
       </c>
@@ -26044,7 +26026,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="211" hidden="true">
+    <row r="211">
       <c r="A211" t="s" s="2">
         <v>503</v>
       </c>
@@ -26160,7 +26142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="212" hidden="true">
+    <row r="212">
       <c r="A212" t="s" s="2">
         <v>504</v>
       </c>
@@ -26272,7 +26254,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="213" hidden="true">
+    <row r="213">
       <c r="A213" t="s" s="2">
         <v>505</v>
       </c>
@@ -26384,7 +26366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>506</v>
       </c>
@@ -26498,7 +26480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="215" hidden="true">
+    <row r="215">
       <c r="A215" t="s" s="2">
         <v>507</v>
       </c>
@@ -26612,7 +26594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="216" hidden="true">
+    <row r="216">
       <c r="A216" t="s" s="2">
         <v>508</v>
       </c>
@@ -26726,7 +26708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="217" hidden="true">
+    <row r="217">
       <c r="A217" t="s" s="2">
         <v>509</v>
       </c>
@@ -26840,7 +26822,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="218" hidden="true">
+    <row r="218">
       <c r="A218" t="s" s="2">
         <v>512</v>
       </c>
@@ -26952,7 +26934,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>513</v>
       </c>
@@ -27066,7 +27048,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="220" hidden="true">
+    <row r="220">
       <c r="A220" t="s" s="2">
         <v>514</v>
       </c>
@@ -27182,7 +27164,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="221" hidden="true">
+    <row r="221">
       <c r="A221" t="s" s="2">
         <v>515</v>
       </c>
@@ -27294,7 +27276,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="222" hidden="true">
+    <row r="222">
       <c r="A222" t="s" s="2">
         <v>516</v>
       </c>
@@ -27408,7 +27390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="223" hidden="true">
+    <row r="223">
       <c r="A223" t="s" s="2">
         <v>517</v>
       </c>
@@ -27520,7 +27502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" hidden="true">
+    <row r="224">
       <c r="A224" t="s" s="2">
         <v>519</v>
       </c>
@@ -27632,7 +27614,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="225" hidden="true">
+    <row r="225">
       <c r="A225" t="s" s="2">
         <v>520</v>
       </c>
@@ -27744,7 +27726,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="226" hidden="true">
+    <row r="226">
       <c r="A226" t="s" s="2">
         <v>521</v>
       </c>
@@ -27858,7 +27840,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="227" hidden="true">
+    <row r="227">
       <c r="A227" t="s" s="2">
         <v>522</v>
       </c>
@@ -27974,7 +27956,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>523</v>
       </c>
@@ -28088,7 +28070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="229" hidden="true">
+    <row r="229">
       <c r="A229" t="s" s="2">
         <v>524</v>
       </c>
@@ -28202,7 +28184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>525</v>
       </c>
@@ -28314,7 +28296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="231" hidden="true">
+    <row r="231">
       <c r="A231" t="s" s="2">
         <v>526</v>
       </c>
@@ -28426,7 +28408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="232" hidden="true">
+    <row r="232">
       <c r="A232" t="s" s="2">
         <v>527</v>
       </c>
@@ -28540,7 +28522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="233" hidden="true">
+    <row r="233">
       <c r="A233" t="s" s="2">
         <v>528</v>
       </c>
@@ -28656,7 +28638,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="234" hidden="true">
+    <row r="234">
       <c r="A234" t="s" s="2">
         <v>529</v>
       </c>
@@ -28766,7 +28748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
         <v>531</v>
       </c>
@@ -28880,7 +28862,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="236" hidden="true">
+    <row r="236">
       <c r="A236" t="s" s="2">
         <v>532</v>
       </c>
@@ -28992,7 +28974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>533</v>
       </c>
@@ -29104,7 +29086,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
         <v>534</v>
       </c>
@@ -29216,7 +29198,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>535</v>
       </c>
@@ -29328,7 +29310,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="240" hidden="true">
+    <row r="240">
       <c r="A240" t="s" s="2">
         <v>536</v>
       </c>
@@ -29440,7 +29422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>537</v>
       </c>
@@ -29552,7 +29534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="242" hidden="true">
+    <row r="242">
       <c r="A242" t="s" s="2">
         <v>538</v>
       </c>
@@ -29666,7 +29648,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="243" hidden="true">
+    <row r="243">
       <c r="A243" t="s" s="2">
         <v>539</v>
       </c>
@@ -29782,7 +29764,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="244" hidden="true">
+    <row r="244">
       <c r="A244" t="s" s="2">
         <v>540</v>
       </c>
@@ -29894,7 +29876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="245" hidden="true">
+    <row r="245">
       <c r="A245" t="s" s="2">
         <v>541</v>
       </c>
@@ -30006,7 +29988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="246" hidden="true">
+    <row r="246">
       <c r="A246" t="s" s="2">
         <v>542</v>
       </c>
@@ -30120,7 +30102,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" hidden="true">
+    <row r="247">
       <c r="A247" t="s" s="2">
         <v>543</v>
       </c>
@@ -30234,7 +30216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="248" hidden="true">
+    <row r="248">
       <c r="A248" t="s" s="2">
         <v>544</v>
       </c>
@@ -30348,7 +30330,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="249" hidden="true">
+    <row r="249">
       <c r="A249" t="s" s="2">
         <v>545</v>
       </c>
@@ -30462,7 +30444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="250" hidden="true">
+    <row r="250">
       <c r="A250" t="s" s="2">
         <v>548</v>
       </c>
@@ -30574,7 +30556,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>549</v>
       </c>
@@ -30688,7 +30670,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="252" hidden="true">
+    <row r="252">
       <c r="A252" t="s" s="2">
         <v>550</v>
       </c>
@@ -30804,7 +30786,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="253" hidden="true">
+    <row r="253">
       <c r="A253" t="s" s="2">
         <v>551</v>
       </c>
@@ -30916,7 +30898,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="254" hidden="true">
+    <row r="254">
       <c r="A254" t="s" s="2">
         <v>552</v>
       </c>
@@ -31030,7 +31012,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="255" hidden="true">
+    <row r="255">
       <c r="A255" t="s" s="2">
         <v>553</v>
       </c>
@@ -31142,7 +31124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>560</v>
       </c>
@@ -31254,7 +31236,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="257" hidden="true">
+    <row r="257">
       <c r="A257" t="s" s="2">
         <v>561</v>
       </c>
@@ -31366,7 +31348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="258" hidden="true">
+    <row r="258">
       <c r="A258" t="s" s="2">
         <v>562</v>
       </c>
@@ -31480,7 +31462,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="259" hidden="true">
+    <row r="259">
       <c r="A259" t="s" s="2">
         <v>563</v>
       </c>
@@ -31596,7 +31578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>564</v>
       </c>
@@ -31710,7 +31692,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="261" hidden="true">
+    <row r="261">
       <c r="A261" t="s" s="2">
         <v>565</v>
       </c>
@@ -31824,7 +31806,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>566</v>
       </c>
@@ -31936,7 +31918,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="263" hidden="true">
+    <row r="263">
       <c r="A263" t="s" s="2">
         <v>567</v>
       </c>
@@ -32048,7 +32030,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" hidden="true">
+    <row r="264">
       <c r="A264" t="s" s="2">
         <v>568</v>
       </c>
@@ -32162,7 +32144,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="265" hidden="true">
+    <row r="265">
       <c r="A265" t="s" s="2">
         <v>569</v>
       </c>
@@ -32278,7 +32260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" hidden="true">
+    <row r="266">
       <c r="A266" t="s" s="2">
         <v>570</v>
       </c>
@@ -32388,7 +32370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="267" hidden="true">
+    <row r="267">
       <c r="A267" t="s" s="2">
         <v>572</v>
       </c>
@@ -32502,7 +32484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="268" hidden="true">
+    <row r="268">
       <c r="A268" t="s" s="2">
         <v>573</v>
       </c>
@@ -32614,7 +32596,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="269" hidden="true">
+    <row r="269">
       <c r="A269" t="s" s="2">
         <v>574</v>
       </c>
@@ -32726,7 +32708,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="270" hidden="true">
+    <row r="270">
       <c r="A270" t="s" s="2">
         <v>575</v>
       </c>
@@ -32838,7 +32820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>576</v>
       </c>
@@ -32950,7 +32932,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="272" hidden="true">
+    <row r="272">
       <c r="A272" t="s" s="2">
         <v>577</v>
       </c>
@@ -33062,7 +33044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="273" hidden="true">
+    <row r="273">
       <c r="A273" t="s" s="2">
         <v>578</v>
       </c>
@@ -33174,7 +33156,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="274" hidden="true">
+    <row r="274">
       <c r="A274" t="s" s="2">
         <v>579</v>
       </c>
@@ -33288,7 +33270,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" hidden="true">
+    <row r="275">
       <c r="A275" t="s" s="2">
         <v>580</v>
       </c>
@@ -33404,7 +33386,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" hidden="true">
+    <row r="276">
       <c r="A276" t="s" s="2">
         <v>581</v>
       </c>
@@ -33516,7 +33498,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" hidden="true">
+    <row r="277">
       <c r="A277" t="s" s="2">
         <v>582</v>
       </c>
@@ -33628,7 +33610,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" hidden="true">
+    <row r="278">
       <c r="A278" t="s" s="2">
         <v>583</v>
       </c>
@@ -33742,7 +33724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="279" hidden="true">
+    <row r="279">
       <c r="A279" t="s" s="2">
         <v>584</v>
       </c>
@@ -33856,7 +33838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="280" hidden="true">
+    <row r="280">
       <c r="A280" t="s" s="2">
         <v>585</v>
       </c>
@@ -33970,7 +33952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="281" hidden="true">
+    <row r="281">
       <c r="A281" t="s" s="2">
         <v>586</v>
       </c>
@@ -34087,24 +34069,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN281">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI280">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>